--- a/va_facility_data_2025-02-20/G.V. (Sonny) Montgomery Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''G.V.%20%28Sonny%29%20Montgomery%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/G.V. (Sonny) Montgomery Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''G.V.%20%28Sonny%29%20Montgomery%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R2376972099fb49c48407d52e5017d011"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0df08f3f70fb4adfbc962dae6d136adf"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc1a79275fe1246319d376d4b8b68fdcb"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R9059acf52ae24216bbbcf4c9d3084570"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf6809b7c45bf4bd495eb07538b313385"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R8df20bf9b4bf4aac9bf01fe497dc07cf"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rc92c3cca2cb5414186a216955a1823db"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R299dee0f8ef64a5d910471f0e0e4a52d"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rdc8823ee78d9441caf5d34849941ca81"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R02e3845f549043d0a0f7be75ff383021"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R9a72126c321d4ae9ab4ffcc2c07a4fc4"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rd0518aaa3ea941269ab3487d676911a2"/>
   </x:sheets>
 </x:workbook>
 </file>
